--- a/Data/EC/NIT-8901056150.xlsx
+++ b/Data/EC/NIT-8901056150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CA7759D-A33B-4BC7-9C99-0196D40D084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A06026E-EEDD-4841-B48E-6E9D3B0D2007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EDCA70CF-3428-440D-BA7F-21D2A71D7995}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60AD4BFF-F949-49FB-B562-BF7A3377EF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,117 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1072260135</t>
+  </si>
+  <si>
+    <t>SEBASTIAN JOSE MARTELO ESQUIVEL</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1047474222</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO BOLIVAR MENDOZA</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
     <t>43611573</t>
   </si>
   <si>
@@ -74,121 +185,10 @@
     <t>1911</t>
   </si>
   <si>
-    <t>1072260135</t>
-  </si>
-  <si>
-    <t>SEBASTIAN JOSE MARTELO ESQUIVEL</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>1143365578</t>
   </si>
   <si>
     <t>YEAN CARLOS MEZA PITALUA</t>
-  </si>
-  <si>
-    <t>1047474222</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO BOLIVAR MENDOZA</t>
   </si>
   <si>
     <t>1030604730</t>
@@ -296,7 +296,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,9 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,23 +511,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +555,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3456BCE5-76A9-756B-A2AD-D630670E34BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE52DBB-1FBD-625D-CA7E-12B7C54826A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E906770-344E-4E63-84AF-CB72D57A393E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF5C493-0CF8-4993-80C4-108EC5EBFD7E}">
   <dimension ref="B2:J58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1140,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>6625</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,16 +1154,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1177,16 +1177,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>1000000</v>
@@ -1200,16 +1200,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>1000000</v>
@@ -1223,16 +1223,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>1000000</v>
@@ -1246,16 +1246,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>1000000</v>
@@ -1269,16 +1269,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>1000000</v>
@@ -1292,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1315,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>25774</v>
@@ -1338,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>25774</v>
@@ -1361,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>25774</v>
@@ -1384,13 +1384,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>25774</v>
@@ -1407,13 +1407,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>25774</v>
@@ -1430,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>25774</v>
@@ -1453,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>25774</v>
@@ -1476,13 +1476,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>25774</v>
@@ -1499,13 +1499,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>25774</v>
@@ -1522,13 +1522,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>25774</v>
@@ -1545,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>25774</v>
@@ -1568,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>25774</v>
@@ -1591,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>25774</v>
@@ -1614,13 +1614,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>25774</v>
@@ -1637,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>25774</v>
@@ -1660,13 +1660,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>25774</v>
@@ -1683,13 +1683,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>25774</v>
@@ -1706,13 +1706,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>25774</v>
@@ -1729,16 +1729,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>1000000</v>
@@ -1752,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>1000000</v>
@@ -1775,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>1000000</v>
@@ -1798,16 +1798,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>1000000</v>
@@ -1821,16 +1821,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>1000000</v>
@@ -1844,16 +1844,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>1000000</v>
@@ -1867,19 +1867,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>4417</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1890,16 +1890,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>1000000</v>
@@ -1913,13 +1913,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>6625</v>
@@ -1942,13 +1942,13 @@
         <v>50</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
-        <v>4417</v>
+        <v>6625</v>
       </c>
       <c r="G51" s="18">
-        <v>828116</v>
+        <v>877803</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>

--- a/Data/EC/NIT-8901056150.xlsx
+++ b/Data/EC/NIT-8901056150.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A06026E-EEDD-4841-B48E-6E9D3B0D2007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF105B8-D6B6-410D-B700-CABAFD2441C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60AD4BFF-F949-49FB-B562-BF7A3377EF3C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{568758AF-F120-455A-84E2-A3FAB06B685F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -296,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -311,7 +309,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -505,29 +505,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -546,19 +546,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE52DBB-1FBD-625D-CA7E-12B7C54826A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913BB992-2B75-62F7-561F-80BEF776D187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF5C493-0CF8-4993-80C4-108EC5EBFD7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6B24C7-8FD4-4282-AB1A-B8B094CCE17E}">
   <dimension ref="B2:J58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -985,49 +991,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1035,7 +1041,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8901056150</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>911379</v>
       </c>
@@ -1136,18 +1142,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1159,18 +1165,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1182,18 +1188,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1205,18 +1211,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1228,18 +1234,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1251,18 +1257,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1274,18 +1280,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1297,18 +1303,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1320,18 +1326,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1343,18 +1349,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1366,18 +1372,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1389,18 +1395,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1412,18 +1418,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1435,18 +1441,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1458,18 +1464,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1481,18 +1487,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1504,18 +1510,18 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1527,18 +1533,18 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1550,18 +1556,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1573,18 +1579,18 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1596,18 +1602,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1619,18 +1625,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1642,18 +1648,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1665,18 +1671,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1688,18 +1694,18 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1711,18 +1717,18 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>25774</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1734,18 +1740,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>31249</v>
       </c>
-      <c r="G42" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="G42" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1757,18 +1763,18 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>31249</v>
       </c>
-      <c r="G43" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="G43" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1780,18 +1786,18 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>31249</v>
       </c>
-      <c r="G44" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="G44" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1803,18 +1809,18 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>31249</v>
       </c>
-      <c r="G45" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="G45" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1826,18 +1832,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>31249</v>
       </c>
-      <c r="G46" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="G46" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1849,18 +1855,18 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>31249</v>
       </c>
-      <c r="G47" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="G47" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1872,18 +1878,18 @@
       <c r="D48" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>4417</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>828116</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1895,18 +1901,18 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="19">
         <v>31249</v>
       </c>
-      <c r="G49" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="G49" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1918,18 +1924,18 @@
       <c r="D50" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>6625</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>877803</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1941,47 +1947,47 @@
       <c r="D51" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>6625</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>877803</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="22" t="s">
+      <c r="B52" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="26">
         <v>4845</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="26">
         <v>908526</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="32"/>
+      <c r="C57" s="34"/>
       <c r="H57" s="1" t="s">
         <v>63</v>
       </c>
@@ -1989,10 +1995,10 @@
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="34"/>
       <c r="H58" s="1" t="s">
         <v>64</v>
       </c>
